--- a/public/import/wekly 25.xlsx
+++ b/public/import/wekly 25.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
   <si>
     <t>year</t>
   </si>
@@ -65,7 +65,10 @@
     <t>Penjualan oraimo perminggu 50juta</t>
   </si>
   <si>
-    <t>28</t>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Melakukan penawaran barang slow moving acc oraimo</t>
   </si>
 </sst>
 </file>
@@ -385,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,6 +502,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
